--- a/Demo/Output - Demo Pin Pile Installation.xlsx
+++ b/Demo/Output - Demo Pin Pile Installation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://odslco.sharepoint.com/sites/PROJECTS/Shared Documents/RND - Research and Development/P-RND-ODSL-44053 AVENTIS Development/Code Development 2/Aventis/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6353EB94F890139AC8FCC4D823786BCEE25D6266" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D79702F-D178-3043-AB53-41D3D1B1E344}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6353EB94F890139AC8FCC4D823786BCEE25D6266" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B418AC9-BA22-9444-AAD8-67767FF53CCE}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="3620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29660" yWindow="500" windowWidth="29860" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,14 +569,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1010" workbookViewId="0">
-      <selection activeCell="Y1021" sqref="Y1021"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
